--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt8a</t>
+  </si>
+  <si>
+    <t>Fzd4</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Wnt8a</t>
-  </si>
-  <si>
-    <t>Fzd4</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H2">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N2">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q2">
-        <v>157.66845047436</v>
+        <v>0.3955587119440001</v>
       </c>
       <c r="R2">
-        <v>1419.01605426924</v>
+        <v>3.560028407496</v>
       </c>
       <c r="S2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="T2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H3">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>50.345671</v>
       </c>
       <c r="O3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q3">
-        <v>118.033814598028</v>
+        <v>0.2501956090162222</v>
       </c>
       <c r="R3">
-        <v>1062.304331382252</v>
+        <v>2.251760481146</v>
       </c>
       <c r="S3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="T3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H4">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N4">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q4">
-        <v>119.609756609756</v>
+        <v>0.3529455383666666</v>
       </c>
       <c r="R4">
-        <v>1076.487809487804</v>
+        <v>3.1765098453</v>
       </c>
       <c r="S4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="T4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
     </row>
   </sheetData>
